--- a/data/input/absenteeism_data_10.xlsx
+++ b/data/input/absenteeism_data_10.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13604</v>
+        <v>68550</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Laura Rezende</t>
+          <t>Dr. Vitor Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>5337.07</v>
+        <v>3167.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33493</v>
+        <v>52175</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Emilly Viana</t>
+          <t>Mariana Jesus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>11403.17</v>
+        <v>3752.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28519</v>
+        <v>59160</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Carlos Eduardo Almeida</t>
+          <t>Ana Júlia Moreira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>8914.16</v>
+        <v>11614.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14164</v>
+        <v>89582</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Lívia Ferreira</t>
+          <t>Sophie da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>11422.44</v>
+        <v>8494.639999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13163</v>
+        <v>85516</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariana Costa</t>
+          <t>Davi Sales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>11826.01</v>
+        <v>2589.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23224</v>
+        <v>10969</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Igor Araújo</t>
+          <t>Ana Clara Mendes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>5419.78</v>
+        <v>3973.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>58311</v>
+        <v>39730</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Davi Luiz Nascimento</t>
+          <t>Eloah da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>11545.2</v>
+        <v>11364.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54724</v>
+        <v>94102</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Martins</t>
+          <t>Diogo Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>3483.1</v>
+        <v>8062.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24559</v>
+        <v>58157</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Felipe Azevedo</t>
+          <t>Maysa Alves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>8919.290000000001</v>
+        <v>8550.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38730</v>
+        <v>5930</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Pedro da Rosa</t>
+          <t>Vicente Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>2707.2</v>
+        <v>8381.860000000001</v>
       </c>
     </row>
   </sheetData>
